--- a/Laporan/Validasi Ide New.xlsx
+++ b/Laporan/Validasi Ide New.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Folder HD Baru\Semester 6\Rekayasa Perangkat Lunak 2\Tugas-Besar-RPL2\Laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agha\Documents\GitHub\Tugas-Besar-RPL2\Laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Masalah &amp; Riskiest Assumption" sheetId="3" r:id="rId1"/>
     <sheet name="Resume Rekaman" sheetId="2" r:id="rId2"/>
     <sheet name="Rekapitulasi Interview" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="90">
   <si>
     <t>PIC</t>
   </si>
@@ -242,12 +242,66 @@
   </si>
   <si>
     <t>MDP</t>
+  </si>
+  <si>
+    <t>Acep</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>Indah Febrina</t>
+  </si>
+  <si>
+    <t>acep.m4a</t>
+  </si>
+  <si>
+    <t>yoga.m4a</t>
+  </si>
+  <si>
+    <t>indah_febrina.m4a</t>
+  </si>
+  <si>
+    <t>Nugraha</t>
+  </si>
+  <si>
+    <t>Sekeloa</t>
+  </si>
+  <si>
+    <t>Baladewa</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>Tidak Ditanyakan</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -359,11 +413,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,6 +486,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,20 +507,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,11 +847,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
@@ -753,7 +859,7 @@
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -767,7 +873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -781,7 +887,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -793,7 +899,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -810,13 +916,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P18"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="9.140625" style="6"/>
@@ -831,116 +937,116 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="2:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14" t="s">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>1</v>
       </c>
@@ -969,7 +1075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>2</v>
       </c>
@@ -998,7 +1104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>3</v>
       </c>
@@ -1027,7 +1133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>4</v>
       </c>
@@ -1056,7 +1162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>5</v>
       </c>
@@ -1085,7 +1191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>6</v>
       </c>
@@ -1114,7 +1220,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>7</v>
       </c>
@@ -1143,7 +1249,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>8</v>
       </c>
@@ -1173,7 +1279,7 @@
       </c>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>9</v>
       </c>
@@ -1203,19 +1309,120 @@
       </c>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1243,14 +1450,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J17" sqref="B2:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
@@ -1258,51 +1466,51 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
@@ -1313,17 +1521,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="22">
         <v>5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="22">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1342,11 +1550,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1363,11 +1571,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1384,11 +1592,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1405,11 +1613,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1426,17 +1634,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="18">
         <v>4</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="18">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1445,84 +1653,188 @@
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="1" t="s">
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="H12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
+      <c r="H13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="12">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="12">
+        <v>12</v>
+      </c>
+      <c r="H17" s="12">
+        <v>11</v>
+      </c>
+      <c r="I17" s="12">
+        <v>9</v>
+      </c>
+      <c r="J17" s="12">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
+  <mergeCells count="20">
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
@@ -1535,8 +1847,15 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>